--- a/biology/Zoologie/Denté_à_gros_yeux/Denté_à_gros_yeux.xlsx
+++ b/biology/Zoologie/Denté_à_gros_yeux/Denté_à_gros_yeux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dent%C3%A9_%C3%A0_gros_yeux</t>
+          <t>Denté_à_gros_yeux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dentex macrophthalmus
 Le denté à gros yeux (Dentex macrophthalmus) est un poisson. Ses autres noms vernaculaires sont Large-eye dentex en anglais et Cachucho en espagnol.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dent%C3%A9_%C3%A0_gros_yeux</t>
+          <t>Denté_à_gros_yeux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son corps est ovale et comprimé, le profil de la tête régulièrement incliné à partir de la nuque, l'œil très grand (son diamètre est plus grand que la longueur du museau) avec un espace sous-orbitaire très étroit. Narine postérieure arrondie; joues écailleuses, pré-opercule écailleux sauf sur son bord postérieur, bouche basse, inclinée. Il possède plusieurs rangées de dents caniniformes, la rangée externe est la plus forte, avec, à la mâchoire supérieure, 4 dents antérieures très développées, visibles quand la bouche est fermée, et, à la mâchoire inférieure, 10 petites canines antérieures nettement moins fortes que les supérieures. Il a 17 à 20 branchiospines inférieures, 9 à 12 supérieures sur le premier arc branchial. Sa nageoire dorsale a 11 ou 12 épines de longueur croissante jusqu'à la quatrième ou cinquième, les suivantes subégales, et 10 ou 11 rayons mous, et sa nageoire anale à 3 épines et 8 rayons mous. Écailles de la ligne latérale : 49 à 55.
 La coloration du corps et des nageoires est rougeâtre, tandis que sa ligne latérale est rouge plus vif. Dorsale épineuse à base blanchâtre; anale lisérée de blanc; bord inférieur de la pointe de la caudale blanc; coloration plus intense au moment de la reproduction.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dent%C3%A9_%C3%A0_gros_yeux</t>
+          <t>Denté_à_gros_yeux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat et biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le denté à gros yeux est un poisson démersal sur fonds rocheux, vaseux et sablo-vaseux ; il vit de 20 à 250 m, s'enfonçant progressivement et s'éloignant de la côte au fur et à mesure qu'il grandit. Ils effectuent des déplacements saisonniers vers la côte et le large suivant les conditions hydrologiques locales et le cycle biologique. La reproduction se passe en avril-mai (sud de l'aire) juillet-août (mer Égée), hiver (Méditerranée occidentale). Il atteint sa maturité à 2 ans (environ 24 cm). Les adultes sont carnivores (surtout de poissons et crustacés), tandis que les jeunes sont planctonophages. On le trouve également dans l'Atlantique est, du Portugal à la Namibie.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dent%C3%A9_%C3%A0_gros_yeux</t>
+          <t>Denté_à_gros_yeux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Pêche et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prises accessoires de la pêche semi-industrielle (Sicile, Mer Adriatique, Chypre) et pêche artisanale et sportive. En 1983, 808 t en Grèce (statistiques FAO). Engins : chaluts, filets maillants et palangres de fond, lignes à main, nasses.
 Il est régulièrement présent sur la plupart des marchés, occasionnellement en Tunisie et Palestine, rarement en Égypte, il est commercialisé frais, réfrigéré et congelé.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dent%C3%A9_%C3%A0_gros_yeux</t>
+          <t>Denté_à_gros_yeux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>FishBase</t>
         </is>
